--- a/outputs-r202/f__Bacteroidaceae.xlsx
+++ b/outputs-r202/f__Bacteroidaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI166"/>
+  <dimension ref="A1:AJ166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,6 +610,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -721,6 +726,11 @@
           <t>g__UBA4334</t>
         </is>
       </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>g__UBA4334(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -832,6 +842,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -943,6 +958,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1054,6 +1074,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1165,6 +1190,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1276,6 +1306,11 @@
           <t>g__Phocaeicola</t>
         </is>
       </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>g__Phocaeicola(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1387,6 +1422,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1498,6 +1538,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1609,6 +1654,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1720,6 +1770,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1831,6 +1886,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1942,6 +2002,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2053,6 +2118,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>g__Prevotella(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2164,6 +2234,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2275,6 +2350,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2386,6 +2466,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2497,6 +2582,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2608,6 +2698,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2719,6 +2814,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2830,6 +2930,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2941,6 +3046,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -3052,6 +3162,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -3163,6 +3278,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -3274,6 +3394,11 @@
           <t>g__UBA6382</t>
         </is>
       </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>g__UBA6382</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -3385,6 +3510,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -3496,6 +3626,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -3607,6 +3742,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -3718,6 +3858,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -3829,6 +3974,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>g__Prevotella(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -3940,6 +4090,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -4051,6 +4206,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -4162,6 +4322,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -4273,6 +4438,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -4384,6 +4554,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -4495,6 +4670,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -4606,6 +4786,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -4717,6 +4902,11 @@
           <t>g__UBA6382</t>
         </is>
       </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>g__UBA6382</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -4828,6 +5018,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -4939,6 +5134,11 @@
           <t>g__UBA4372</t>
         </is>
       </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>g__UBA4372(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -5050,6 +5250,11 @@
           <t>g__UBA4372</t>
         </is>
       </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>g__UBA4372</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -5161,6 +5366,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -5272,6 +5482,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -5383,6 +5598,11 @@
           <t>g__UBA4334</t>
         </is>
       </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>g__UBA4334</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -5494,6 +5714,11 @@
           <t>g__UBA4293</t>
         </is>
       </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>g__UBA4293</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -5605,6 +5830,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -5716,6 +5946,11 @@
           <t>g__RUG210</t>
         </is>
       </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>g__RUG210</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -5827,6 +6062,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -5938,6 +6178,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -6049,6 +6294,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -6160,6 +6410,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -6271,6 +6526,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -6382,6 +6642,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -6493,6 +6758,11 @@
           <t>g__UBA4334</t>
         </is>
       </c>
+      <c r="AJ54" t="inlineStr">
+        <is>
+          <t>g__UBA4334</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -6604,6 +6874,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -6715,6 +6990,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ56" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -6826,6 +7106,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -6937,6 +7222,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ58" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -7048,6 +7338,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ59" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -7159,6 +7454,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ60" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -7270,6 +7570,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ61" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -7381,6 +7686,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ62" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -7492,6 +7802,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -7603,6 +7918,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ64" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -7714,6 +8034,11 @@
           <t>g__Alloprevotella</t>
         </is>
       </c>
+      <c r="AJ65" t="inlineStr">
+        <is>
+          <t>g__Alloprevotella</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -7825,6 +8150,11 @@
           <t>g__UBA4372</t>
         </is>
       </c>
+      <c r="AJ66" t="inlineStr">
+        <is>
+          <t>g__UBA4372(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -7936,6 +8266,11 @@
           <t>g__UBA4334</t>
         </is>
       </c>
+      <c r="AJ67" t="inlineStr">
+        <is>
+          <t>g__UBA4334</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -8047,6 +8382,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ68" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -8158,6 +8498,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ69" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -8269,6 +8614,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ70" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -8380,6 +8730,11 @@
           <t>g__UBA4372</t>
         </is>
       </c>
+      <c r="AJ71" t="inlineStr">
+        <is>
+          <t>g__UBA4372</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -8491,6 +8846,11 @@
           <t>g__UBA6382</t>
         </is>
       </c>
+      <c r="AJ72" t="inlineStr">
+        <is>
+          <t>g__UBA6382</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -8602,6 +8962,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ73" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -8713,6 +9078,11 @@
           <t>g__UBA4334</t>
         </is>
       </c>
+      <c r="AJ74" t="inlineStr">
+        <is>
+          <t>g__UBA4334</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -8824,6 +9194,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ75" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -8935,6 +9310,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ76" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -9046,6 +9426,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ77" t="inlineStr">
+        <is>
+          <t>g__Prevotella(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -9157,6 +9542,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ78" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -9268,6 +9658,11 @@
           <t>g__UBA4334</t>
         </is>
       </c>
+      <c r="AJ79" t="inlineStr">
+        <is>
+          <t>g__UBA4334</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -9379,6 +9774,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ80" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -9490,6 +9890,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ81" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -9601,6 +10006,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ82" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -9712,6 +10122,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ83" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -9823,6 +10238,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ84" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -9934,6 +10354,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ85" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -10045,6 +10470,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ86" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -10156,6 +10586,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ87" t="inlineStr">
+        <is>
+          <t>g__Prevotella(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -10267,6 +10702,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ88" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -10378,6 +10818,11 @@
           <t>g__UBA1179</t>
         </is>
       </c>
+      <c r="AJ89" t="inlineStr">
+        <is>
+          <t>g__UBA1179</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -10489,6 +10934,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ90" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -10600,6 +11050,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ91" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -10711,6 +11166,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ92" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -10822,6 +11282,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ93" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -10933,6 +11398,11 @@
           <t>g__UBA6398</t>
         </is>
       </c>
+      <c r="AJ94" t="inlineStr">
+        <is>
+          <t>g__UBA6398(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -11044,6 +11514,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ95" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -11155,6 +11630,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ96" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -11266,6 +11746,11 @@
           <t>g__UBA1179</t>
         </is>
       </c>
+      <c r="AJ97" t="inlineStr">
+        <is>
+          <t>g__UBA1179</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -11377,6 +11862,11 @@
           <t>g__UBA3839</t>
         </is>
       </c>
+      <c r="AJ98" t="inlineStr">
+        <is>
+          <t>g__UBA3839</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -11488,6 +11978,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ99" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -11599,6 +12094,11 @@
           <t>g__UBA3839</t>
         </is>
       </c>
+      <c r="AJ100" t="inlineStr">
+        <is>
+          <t>g__UBA3839</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -11710,6 +12210,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ101" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -11821,6 +12326,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ102" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -11932,6 +12442,11 @@
           <t>g__Phocaeicola</t>
         </is>
       </c>
+      <c r="AJ103" t="inlineStr">
+        <is>
+          <t>g__Phocaeicola(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -12043,6 +12558,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ104" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -12154,6 +12674,11 @@
           <t>g__UBA6382</t>
         </is>
       </c>
+      <c r="AJ105" t="inlineStr">
+        <is>
+          <t>g__UBA6382</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -12265,6 +12790,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ106" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -12376,6 +12906,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ107" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -12487,6 +13022,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ108" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -12598,6 +13138,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ109" t="inlineStr">
+        <is>
+          <t>g__Prevotella(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -12709,6 +13254,11 @@
           <t>g__UBA4372</t>
         </is>
       </c>
+      <c r="AJ110" t="inlineStr">
+        <is>
+          <t>g__UBA4372</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -12820,6 +13370,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ111" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -12931,6 +13486,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ112" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -13042,6 +13602,11 @@
           <t>g__UBA4372</t>
         </is>
       </c>
+      <c r="AJ113" t="inlineStr">
+        <is>
+          <t>g__UBA4372(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -13153,6 +13718,11 @@
           <t>g__UBA4334</t>
         </is>
       </c>
+      <c r="AJ114" t="inlineStr">
+        <is>
+          <t>g__UBA4334</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -13264,6 +13834,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ115" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -13375,6 +13950,11 @@
           <t>g__UBA4372</t>
         </is>
       </c>
+      <c r="AJ116" t="inlineStr">
+        <is>
+          <t>g__UBA4372(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -13486,6 +14066,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ117" t="inlineStr">
+        <is>
+          <t>g__Prevotella(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -13597,6 +14182,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ118" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -13708,6 +14298,11 @@
           <t>g__UBA4372</t>
         </is>
       </c>
+      <c r="AJ119" t="inlineStr">
+        <is>
+          <t>g__UBA4372</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -13819,6 +14414,11 @@
           <t>g__Prevotellamassilia</t>
         </is>
       </c>
+      <c r="AJ120" t="inlineStr">
+        <is>
+          <t>g__Prevotellamassilia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -13930,6 +14530,11 @@
           <t>g__UBA4334</t>
         </is>
       </c>
+      <c r="AJ121" t="inlineStr">
+        <is>
+          <t>g__UBA4334</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -14041,6 +14646,11 @@
           <t>g__UBA4334</t>
         </is>
       </c>
+      <c r="AJ122" t="inlineStr">
+        <is>
+          <t>g__UBA4334(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -14152,6 +14762,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ123" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -14263,6 +14878,11 @@
           <t>g__UBA1179</t>
         </is>
       </c>
+      <c r="AJ124" t="inlineStr">
+        <is>
+          <t>g__UBA1179</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -14374,6 +14994,11 @@
           <t>g__Phocaeicola</t>
         </is>
       </c>
+      <c r="AJ125" t="inlineStr">
+        <is>
+          <t>g__Phocaeicola(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -14485,6 +15110,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ126" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -14596,6 +15226,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ127" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -14707,6 +15342,11 @@
           <t>g__Alloprevotella</t>
         </is>
       </c>
+      <c r="AJ128" t="inlineStr">
+        <is>
+          <t>g__Alloprevotella</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -14818,6 +15458,11 @@
           <t>g__RUG210</t>
         </is>
       </c>
+      <c r="AJ129" t="inlineStr">
+        <is>
+          <t>g__RUG210</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -14929,6 +15574,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ130" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -15040,6 +15690,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ131" t="inlineStr">
+        <is>
+          <t>g__Prevotella(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -15151,6 +15806,11 @@
           <t>g__UBA4334</t>
         </is>
       </c>
+      <c r="AJ132" t="inlineStr">
+        <is>
+          <t>g__UBA4334</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -15262,6 +15922,11 @@
           <t>g__UBA3839</t>
         </is>
       </c>
+      <c r="AJ133" t="inlineStr">
+        <is>
+          <t>g__UBA3839</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -15373,6 +16038,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ134" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -15484,6 +16154,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ135" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -15595,6 +16270,11 @@
           <t>g__UBA4334</t>
         </is>
       </c>
+      <c r="AJ136" t="inlineStr">
+        <is>
+          <t>g__UBA4334</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -15706,6 +16386,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ137" t="inlineStr">
+        <is>
+          <t>g__Prevotella(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -15817,6 +16502,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ138" t="inlineStr">
+        <is>
+          <t>g__Prevotella(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -15928,6 +16618,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ139" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -16039,6 +16734,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ140" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -16150,6 +16850,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ141" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -16261,6 +16966,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ142" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -16372,6 +17082,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ143" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -16483,6 +17198,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ144" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -16594,6 +17314,11 @@
           <t>g__UBA4334</t>
         </is>
       </c>
+      <c r="AJ145" t="inlineStr">
+        <is>
+          <t>g__UBA4334</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -16705,6 +17430,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ146" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -16816,6 +17546,11 @@
           <t>g__UBA4372</t>
         </is>
       </c>
+      <c r="AJ147" t="inlineStr">
+        <is>
+          <t>g__UBA4372</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -16927,6 +17662,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ148" t="inlineStr">
+        <is>
+          <t>g__Prevotella(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -17038,6 +17778,11 @@
           <t>g__Alloprevotella</t>
         </is>
       </c>
+      <c r="AJ149" t="inlineStr">
+        <is>
+          <t>g__Alloprevotella</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -17149,6 +17894,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ150" t="inlineStr">
+        <is>
+          <t>g__Prevotella(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -17260,6 +18010,11 @@
           <t>g__UBA2918</t>
         </is>
       </c>
+      <c r="AJ151" t="inlineStr">
+        <is>
+          <t>g__UBA2918</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -17371,6 +18126,11 @@
           <t>g__UBA4372</t>
         </is>
       </c>
+      <c r="AJ152" t="inlineStr">
+        <is>
+          <t>g__UBA4372</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -17482,6 +18242,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ153" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -17593,6 +18358,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ154" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -17704,6 +18474,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ155" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -17815,6 +18590,11 @@
           <t>g__UBA3839</t>
         </is>
       </c>
+      <c r="AJ156" t="inlineStr">
+        <is>
+          <t>g__UBA3839</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -17926,6 +18706,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ157" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -18037,6 +18822,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ158" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -18148,6 +18938,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ159" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -18259,6 +19054,11 @@
           <t>g__UBA3839</t>
         </is>
       </c>
+      <c r="AJ160" t="inlineStr">
+        <is>
+          <t>g__UBA3839</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -18370,6 +19170,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ161" t="inlineStr">
+        <is>
+          <t>g__Prevotella(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -18481,6 +19286,11 @@
           <t>g__UBA6398</t>
         </is>
       </c>
+      <c r="AJ162" t="inlineStr">
+        <is>
+          <t>g__UBA6398</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -18592,6 +19402,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ163" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -18703,6 +19518,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="AJ164" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -18814,6 +19634,11 @@
           <t>g__UBA4372</t>
         </is>
       </c>
+      <c r="AJ165" t="inlineStr">
+        <is>
+          <t>g__UBA4372(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -18923,6 +19748,11 @@
       <c r="AI166" t="inlineStr">
         <is>
           <t>g__Phocaeicola</t>
+        </is>
+      </c>
+      <c r="AJ166" t="inlineStr">
+        <is>
+          <t>g__Phocaeicola(reject)</t>
         </is>
       </c>
     </row>
